--- a/participantes.xlsx
+++ b/participantes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nombre</t>
   </si>
@@ -31,22 +31,40 @@
     <t>Fecha Registro</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Emilio</t>
-  </si>
-  <si>
-    <t>juanemilio@gmail.com</t>
-  </si>
-  <si>
-    <t>676676676</t>
-  </si>
-  <si>
-    <t>7/11/2025</t>
-  </si>
-  <si>
-    <t>25/11/2025, 10:09:17</t>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Davies</t>
+  </si>
+  <si>
+    <t>alfonso@gmail.com</t>
+  </si>
+  <si>
+    <t>688688688</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>25/11/2025, 12:09:50</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
+    <t>Maestro Romero</t>
+  </si>
+  <si>
+    <t>rubenmaestroromero@gmail.com</t>
+  </si>
+  <si>
+    <t>637168792</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>25/11/2025, 10:50:02</t>
   </si>
 </sst>
 </file>
@@ -423,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -474,6 +492,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
